--- a/Daily/Soil/2025-03-26.xlsx
+++ b/Daily/Soil/2025-03-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsuagctr-my.sharepoint.com/personal/magyiri_agcenter_lsu_edu/Documents/LSU/Zentra Cloud data/Zentra_Cloud_Data/LaCADIAN/Daily/Soil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6730DDC88F79A89360642C52EA7BD272CAC8A120" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51986463-2926-4121-974D-BA9FB8E18AFA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6730DDC88F79A89360642C52EA7BD272CAC8A120" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041286ED-DB07-46BB-82CB-3ED178742756}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,11 +426,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
